--- a/FAQ/faq_csv/faq_new_2018.5.24.xlsx
+++ b/FAQ/faq_csv/faq_new_2018.5.24.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuqwe\Documents\GitHub\Mooncake_CSS_Bot_contentrelated\FAQ\faq_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD9F110-E577-48E6-8FAB-DA0CA98E65FD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2065BC04-9DC3-4F54-AF82-71255E272950}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="6195" xr2:uid="{AE7BD0CB-B2B6-434C-8139-69FA426D8D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="644">
   <si>
     <t>question</t>
   </si>
@@ -2533,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49694862-65F8-4420-ABE4-D7DD9610D89C}">
   <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B233" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D239" sqref="D239"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C244" sqref="C244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2542,7 +2543,7 @@
     <col min="1" max="1" width="18.06640625" customWidth="1"/>
     <col min="2" max="2" width="9.06640625" style="1"/>
     <col min="3" max="3" width="6.59765625" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -6865,4 +6866,3602 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId145"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DEEACC-BADB-4A2B-9F55-01B0B4906FAB}">
+  <dimension ref="A1:D246"/>
+  <sheetViews>
+    <sheetView topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="C233" sqref="C233:C243"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" t="s">
+        <v>226</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" t="s">
+        <v>226</v>
+      </c>
+      <c r="D81" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" t="s">
+        <v>226</v>
+      </c>
+      <c r="D84" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" t="s">
+        <v>241</v>
+      </c>
+      <c r="D86" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" t="s">
+        <v>241</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>250</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C88" t="s">
+        <v>241</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>252</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" t="s">
+        <v>241</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>254</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" t="s">
+        <v>241</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>256</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" t="s">
+        <v>241</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>259</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" t="s">
+        <v>241</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>262</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" t="s">
+        <v>241</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" t="s">
+        <v>241</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>268</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C96" t="s">
+        <v>241</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>272</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" t="s">
+        <v>241</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>274</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C99" t="s">
+        <v>241</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>276</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C100" t="s">
+        <v>241</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>279</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C101" t="s">
+        <v>241</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>284</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C102" t="s">
+        <v>241</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>286</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C103" t="s">
+        <v>241</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>290</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C104" t="s">
+        <v>241</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>292</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C105" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>296</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C106" t="s">
+        <v>241</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>295</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C107" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>300</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C108" t="s">
+        <v>241</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>304</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C109" t="s">
+        <v>241</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>306</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C110" t="s">
+        <v>241</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>307</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C111" t="s">
+        <v>241</v>
+      </c>
+      <c r="D111" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>309</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C112" t="s">
+        <v>241</v>
+      </c>
+      <c r="D112" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>311</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" t="s">
+        <v>241</v>
+      </c>
+      <c r="D113" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>318</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>320</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>322</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116" t="s">
+        <v>330</v>
+      </c>
+      <c r="D116" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>324</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C117" t="s">
+        <v>330</v>
+      </c>
+      <c r="D117" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C118" t="s">
+        <v>330</v>
+      </c>
+      <c r="D118" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>328</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>333</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C120" t="s">
+        <v>226</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>335</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C121" t="s">
+        <v>226</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>336</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C122" t="s">
+        <v>226</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>339</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C123" t="s">
+        <v>226</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>341</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C124" t="s">
+        <v>226</v>
+      </c>
+      <c r="D124" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>346</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C125" t="s">
+        <v>226</v>
+      </c>
+      <c r="D125" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>345</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C126" t="s">
+        <v>226</v>
+      </c>
+      <c r="D126" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>348</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C127" t="s">
+        <v>226</v>
+      </c>
+      <c r="D127" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>350</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C128" t="s">
+        <v>226</v>
+      </c>
+      <c r="D128" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>352</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C129" t="s">
+        <v>226</v>
+      </c>
+      <c r="D129" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>354</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C130" t="s">
+        <v>226</v>
+      </c>
+      <c r="D130" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>356</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C131" t="s">
+        <v>226</v>
+      </c>
+      <c r="D131" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>358</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C132" t="s">
+        <v>226</v>
+      </c>
+      <c r="D132" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>360</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C133" t="s">
+        <v>226</v>
+      </c>
+      <c r="D133" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>362</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C134" t="s">
+        <v>226</v>
+      </c>
+      <c r="D134" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>364</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C135" t="s">
+        <v>226</v>
+      </c>
+      <c r="D135" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>367</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C136" t="s">
+        <v>226</v>
+      </c>
+      <c r="D136" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>370</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C137" t="s">
+        <v>226</v>
+      </c>
+      <c r="D137" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>372</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C138" t="s">
+        <v>226</v>
+      </c>
+      <c r="D138" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>374</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C139" t="s">
+        <v>226</v>
+      </c>
+      <c r="D139" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>376</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C140" t="s">
+        <v>226</v>
+      </c>
+      <c r="D140" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>378</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C141" t="s">
+        <v>226</v>
+      </c>
+      <c r="D141" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>380</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C142" t="s">
+        <v>226</v>
+      </c>
+      <c r="D142" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>382</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C143" t="s">
+        <v>226</v>
+      </c>
+      <c r="D143" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>384</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C144" t="s">
+        <v>226</v>
+      </c>
+      <c r="D144" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>386</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C145" t="s">
+        <v>226</v>
+      </c>
+      <c r="D145" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>388</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C146" t="s">
+        <v>226</v>
+      </c>
+      <c r="D146" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>390</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C147" t="s">
+        <v>226</v>
+      </c>
+      <c r="D147" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>392</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C148" t="s">
+        <v>226</v>
+      </c>
+      <c r="D148" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>394</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C149" t="s">
+        <v>226</v>
+      </c>
+      <c r="D149" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>396</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C150" t="s">
+        <v>226</v>
+      </c>
+      <c r="D150" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>398</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C151" t="s">
+        <v>226</v>
+      </c>
+      <c r="D151" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>400</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C152" t="s">
+        <v>226</v>
+      </c>
+      <c r="D152" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>404</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C153" t="s">
+        <v>226</v>
+      </c>
+      <c r="D153" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>407</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C154" t="s">
+        <v>226</v>
+      </c>
+      <c r="D154" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>408</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C155" t="s">
+        <v>226</v>
+      </c>
+      <c r="D155" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>410</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C156" t="s">
+        <v>226</v>
+      </c>
+      <c r="D156" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>412</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C157" t="s">
+        <v>226</v>
+      </c>
+      <c r="D157" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>414</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C158" t="s">
+        <v>226</v>
+      </c>
+      <c r="D158" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>416</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C159" t="s">
+        <v>226</v>
+      </c>
+      <c r="D159" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>418</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" t="s">
+        <v>226</v>
+      </c>
+      <c r="D160" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>419</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C161" t="s">
+        <v>226</v>
+      </c>
+      <c r="D161" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>421</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C162" t="s">
+        <v>226</v>
+      </c>
+      <c r="D162" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>423</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C163" t="s">
+        <v>226</v>
+      </c>
+      <c r="D163" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>425</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C164" t="s">
+        <v>226</v>
+      </c>
+      <c r="D164" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>427</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C165" t="s">
+        <v>226</v>
+      </c>
+      <c r="D165" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>429</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C166" t="s">
+        <v>226</v>
+      </c>
+      <c r="D166" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>431</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C167" t="s">
+        <v>226</v>
+      </c>
+      <c r="D167" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>433</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C168" t="s">
+        <v>226</v>
+      </c>
+      <c r="D168" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>435</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C169" t="s">
+        <v>226</v>
+      </c>
+      <c r="D169" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>437</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C170" t="s">
+        <v>226</v>
+      </c>
+      <c r="D170" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>439</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C171" t="s">
+        <v>226</v>
+      </c>
+      <c r="D171" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>443</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C172" t="s">
+        <v>226</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>445</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C173" t="s">
+        <v>226</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>447</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" t="s">
+        <v>226</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>448</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C175" t="s">
+        <v>226</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>449</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C176" t="s">
+        <v>226</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>452</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C177" t="s">
+        <v>226</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>454</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C178" t="s">
+        <v>226</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>456</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C179" t="s">
+        <v>226</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>458</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C180" t="s">
+        <v>226</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>460</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C181" t="s">
+        <v>226</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>462</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C182" t="s">
+        <v>226</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>464</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C183" t="s">
+        <v>226</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>466</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C184" t="s">
+        <v>226</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>469</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>477</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>479</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>481</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C188" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>483</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>485</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>488</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C191" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>490</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C192" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>496</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>498</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>500</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C195" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>502</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>504</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>513</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C198" t="s">
+        <v>54</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>517</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C199" t="s">
+        <v>514</v>
+      </c>
+      <c r="D199" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>526</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C200" t="s">
+        <v>514</v>
+      </c>
+      <c r="D200" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>525</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C201" t="s">
+        <v>514</v>
+      </c>
+      <c r="D201" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>524</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C202" t="s">
+        <v>514</v>
+      </c>
+      <c r="D202" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>523</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C203" t="s">
+        <v>514</v>
+      </c>
+      <c r="D203" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>527</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C204" t="s">
+        <v>514</v>
+      </c>
+      <c r="D204" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>529</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C205" t="s">
+        <v>514</v>
+      </c>
+      <c r="D205" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>531</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C206" t="s">
+        <v>514</v>
+      </c>
+      <c r="D206" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>533</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C207" t="s">
+        <v>514</v>
+      </c>
+      <c r="D207" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>537</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C208" t="s">
+        <v>536</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>539</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C209" t="s">
+        <v>536</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>540</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C210" t="s">
+        <v>536</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>545</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C211" t="s">
+        <v>536</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>546</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C212" t="s">
+        <v>536</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>558</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C213" t="s">
+        <v>549</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>555</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C214" t="s">
+        <v>549</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>556</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C215" t="s">
+        <v>549</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>557</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C216" t="s">
+        <v>549</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>559</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C217" t="s">
+        <v>549</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>560</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C218" t="s">
+        <v>549</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>562</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C219" t="s">
+        <v>549</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>566</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C220" t="s">
+        <v>241</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>569</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C221" t="s">
+        <v>574</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>571</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C222" t="s">
+        <v>574</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>578</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C223" t="s">
+        <v>577</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>580</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C224" t="s">
+        <v>577</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>584</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C225" t="s">
+        <v>583</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>585</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C226" t="s">
+        <v>583</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>586</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C227" t="s">
+        <v>583</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>596</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C228" t="s">
+        <v>583</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>587</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C229" t="s">
+        <v>583</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>605</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C230" t="s">
+        <v>583</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>604</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C231" t="s">
+        <v>583</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>603</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C232" t="s">
+        <v>583</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>612</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C233" t="s">
+        <v>610</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>614</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C234" t="s">
+        <v>610</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>616</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C235" t="s">
+        <v>610</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>618</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C236" t="s">
+        <v>610</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>620</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C237" t="s">
+        <v>610</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>622</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C238" t="s">
+        <v>610</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>624</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C239" t="s">
+        <v>610</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>626</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C240" t="s">
+        <v>610</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>629</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C241" t="s">
+        <v>610</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>630</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C242" t="s">
+        <v>610</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>632</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C243" t="s">
+        <v>610</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>635</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C244" t="s">
+        <v>330</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>640</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C245" t="s">
+        <v>330</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>642</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C246" t="s">
+        <v>330</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" location="frequently-asked-questions-faq" xr:uid="{7DA031EF-C777-4B14-891D-57E2F751331E}"/>
+    <hyperlink ref="D14" r:id="rId2" location="step3" xr:uid="{55A4A05D-FBA6-45D6-835B-052D03EA8929}"/>
+    <hyperlink ref="D12" r:id="rId3" location="step1" xr:uid="{4468D24A-B35A-460D-A34A-1335D5EC0BA4}"/>
+    <hyperlink ref="D13" r:id="rId4" location="step2" xr:uid="{06BA2040-AB46-491E-8CF9-D9702EAEF6DF}"/>
+    <hyperlink ref="D15" r:id="rId5" location="step18" xr:uid="{7347179C-9CE5-4944-B90E-635F94EC84CE}"/>
+    <hyperlink ref="D16" r:id="rId6" location="step4" xr:uid="{76C3D2FE-FA1C-4EA2-82C7-266101246E70}"/>
+    <hyperlink ref="D17" r:id="rId7" location="step5" xr:uid="{2927009C-2240-4A0F-AC4A-871A88F95A44}"/>
+    <hyperlink ref="D19" r:id="rId8" location="step7" xr:uid="{A19D88F9-9CA1-4C90-99C0-C7BF69F39ADC}"/>
+    <hyperlink ref="D20" r:id="rId9" location="step10" xr:uid="{F0541F0E-8688-4277-8D75-70602DF9C6F3}"/>
+    <hyperlink ref="D22" r:id="rId10" location="step2" xr:uid="{1B5FF47A-A859-4CD7-B6A6-93B807055727}"/>
+    <hyperlink ref="D25" r:id="rId11" location="step6" xr:uid="{5FF2CA36-761B-416E-A4C7-F688C8169E56}"/>
+    <hyperlink ref="D26" r:id="rId12" location="step7" xr:uid="{07863BC2-5B6E-4D48-852F-97935A2E48E9}"/>
+    <hyperlink ref="D27" r:id="rId13" location="step8" xr:uid="{54FBB05D-179D-486B-AEB8-75D4F477FCAB}"/>
+    <hyperlink ref="D28" r:id="rId14" location="9" xr:uid="{FEE4EF4E-E0A8-419A-AFBF-25B88A5312E7}"/>
+    <hyperlink ref="D29" r:id="rId15" location="step2" xr:uid="{A1F21F99-27D3-4EB4-9371-44B4263C0C60}"/>
+    <hyperlink ref="D30" r:id="rId16" location="step3" xr:uid="{8DA5BB49-64B2-46CC-9C89-A1C92AF9AC75}"/>
+    <hyperlink ref="D31" r:id="rId17" location="step4" xr:uid="{2742A02D-A668-43D0-9784-0B76305EE02C}"/>
+    <hyperlink ref="D32" r:id="rId18" location="step5" xr:uid="{0589DF69-5CB7-4114-8A37-028ED8100260}"/>
+    <hyperlink ref="D33" r:id="rId19" location="step6" xr:uid="{FDFAA3F5-C767-477A-8B2E-C389C0F759E1}"/>
+    <hyperlink ref="D34" r:id="rId20" location="step7" xr:uid="{194CBC9C-0AF8-4CEC-9FB9-5FCDE157545A}"/>
+    <hyperlink ref="D35" r:id="rId21" location="step8" xr:uid="{653AA580-E29C-4C8E-8DE3-CE2C7AD4CD60}"/>
+    <hyperlink ref="D36" r:id="rId22" location="step26" xr:uid="{33B8A141-60FD-41A1-AF7C-EC8E1C4D2602}"/>
+    <hyperlink ref="D37" r:id="rId23" location="step9" xr:uid="{94E9C219-F5DC-4EEC-BF32-647FD65A1E5B}"/>
+    <hyperlink ref="D38" r:id="rId24" location="step11" xr:uid="{85AD8D30-3E96-40BE-861E-D0DA89413206}"/>
+    <hyperlink ref="D39" r:id="rId25" location="step12" xr:uid="{A012663B-7071-4C1F-BC37-94F0069886C5}"/>
+    <hyperlink ref="D40" r:id="rId26" location="step13" xr:uid="{75C78DC0-E98C-4B3D-89DB-8B96A7196D18}"/>
+    <hyperlink ref="D41" r:id="rId27" location="step23" xr:uid="{41719B8A-3965-4733-A39A-D17C7844D05E}"/>
+    <hyperlink ref="D42" r:id="rId28" location="step24" xr:uid="{3E14EED4-6AF3-4D4B-9538-BB024013F606}"/>
+    <hyperlink ref="D43" r:id="rId29" location="step27" xr:uid="{887B552D-4262-4F9D-A2BF-1432B6CD04C3}"/>
+    <hyperlink ref="D44" r:id="rId30" location="step14" xr:uid="{A6CFFE37-A40B-4B9D-9B3B-4A7E81329F5C}"/>
+    <hyperlink ref="D45" r:id="rId31" location="step15" xr:uid="{4ABB1344-6CB0-42C6-8FB0-1982E6547CFE}"/>
+    <hyperlink ref="D46" r:id="rId32" location="step16" xr:uid="{7E101D19-934D-433C-8E52-C3793EF4E755}"/>
+    <hyperlink ref="D47" r:id="rId33" location="step17" xr:uid="{3ED27BC1-70FC-4808-952B-D7F4715267F3}"/>
+    <hyperlink ref="D48" r:id="rId34" location="step20" xr:uid="{9035A62A-B52D-4228-A82D-536A50B88313}"/>
+    <hyperlink ref="D49" r:id="rId35" location="step25" xr:uid="{2A988F35-C5A9-4B88-9280-DBA1DFBE8742}"/>
+    <hyperlink ref="D50" r:id="rId36" location="step21" xr:uid="{29CA325D-EB69-4467-96E1-7BA9EE62D8DD}"/>
+    <hyperlink ref="D51" r:id="rId37" location="step10" xr:uid="{373737B7-F872-426E-AE2B-4CE04491A5EF}"/>
+    <hyperlink ref="D52" r:id="rId38" location="step22" xr:uid="{188B7DA6-B046-47CA-8B47-2DF7E08AFFE8}"/>
+    <hyperlink ref="D53" r:id="rId39" location="step28" xr:uid="{B0DA8F8E-8295-47EC-BAAE-A5C2CB6F3D97}"/>
+    <hyperlink ref="D54" r:id="rId40" location="%E8%B4%A6%E6%88%B7" xr:uid="{319E238C-1A48-42DF-94BC-CAB264AF5B01}"/>
+    <hyperlink ref="D55" r:id="rId41" location="%E8%B4%A6%E6%88%B7" xr:uid="{A2736915-39B1-4914-87E4-A14806244E71}"/>
+    <hyperlink ref="D56" r:id="rId42" location="%E8%B4%A6%E6%88%B7" display="https://docs.azure.cn/zh-cn/articles/azure-china-purchasing-guidance/go-china-playbook-ospa-faqs#%E8%B4%A6%E6%88%B7" xr:uid="{064836B5-E53B-4EA6-B94C-AF812BF7EB1C}"/>
+    <hyperlink ref="D60" r:id="rId43" location="%E8%B4%A6%E6%88%B7" xr:uid="{63C9B59F-F03D-4EED-8DF5-B8C8CD31D700}"/>
+    <hyperlink ref="D61" r:id="rId44" location="%E8%AE%A2%E9%98%85" xr:uid="{E0F2AB19-FFDC-4D83-927D-B05B16C8A2C9}"/>
+    <hyperlink ref="D57" r:id="rId45" location="%E8%B4%A6%E6%88%B7" xr:uid="{9A65A185-4BF5-409C-B582-FF318EE732F5}"/>
+    <hyperlink ref="D58" r:id="rId46" location="%E8%B4%A6%E6%88%B7" xr:uid="{19AE18EE-2165-4740-B4AF-DB7720B54AE4}"/>
+    <hyperlink ref="D62" r:id="rId47" location="%E8%AE%A2%E9%98%85" xr:uid="{04E5C311-E45B-43C7-BE3B-2E4DFECD5A0C}"/>
+    <hyperlink ref="D63" r:id="rId48" location="%E8%AE%A2%E9%98%85" xr:uid="{2757CAD9-47A5-4BFB-BE37-4504BA8E0189}"/>
+    <hyperlink ref="D64" r:id="rId49" location="%E8%AE%A2%E9%98%85" xr:uid="{00EA7689-C5AD-49A9-A9DD-02B33EBC0DD4}"/>
+    <hyperlink ref="D65" r:id="rId50" location="%E8%AE%A2%E9%98%85" xr:uid="{68073A5F-9378-4AB3-AACD-3B89A2E6AAE9}"/>
+    <hyperlink ref="D79" r:id="rId51" location="%E6%B3%A8%E5%86%8C-azure-%E8%B4%A6%E5%8F%B7" xr:uid="{FA706BBC-DC5F-4D5D-B65D-51D94F3D649C}"/>
+    <hyperlink ref="D11" r:id="rId52" xr:uid="{FB8F807E-78AA-4381-9546-ED8CC90358EC}"/>
+    <hyperlink ref="D87" r:id="rId53" location="step1" xr:uid="{4B1E02EA-1098-405F-B5FA-923D73E4D889}"/>
+    <hyperlink ref="D88" r:id="rId54" location="step1" xr:uid="{1626E3B0-C4FC-4304-A885-4A510D94D750}"/>
+    <hyperlink ref="D89" r:id="rId55" location="step1" xr:uid="{6CC15B38-0DB9-4459-9C23-29A020C2A04C}"/>
+    <hyperlink ref="D90" r:id="rId56" location="step1" xr:uid="{274A2943-38C2-4315-8EA8-E0859C9B3F98}"/>
+    <hyperlink ref="D91" r:id="rId57" location="step1" xr:uid="{BAD3DD29-8341-4FAB-89D6-40A71ADB9DAE}"/>
+    <hyperlink ref="D92" r:id="rId58" location="step1" xr:uid="{253EB769-99F7-43AE-B937-F97F805CE4F0}"/>
+    <hyperlink ref="D93" r:id="rId59" location="step1" xr:uid="{5C4F4445-6CBE-4875-8F58-D0C8D6568D11}"/>
+    <hyperlink ref="D94" r:id="rId60" location="step1" xr:uid="{C3DBAAB4-12F9-471F-AC9E-70FCE7914C29}"/>
+    <hyperlink ref="D95" r:id="rId61" location="step1" xr:uid="{D7BC1BBF-564F-4514-8BA4-FA6C4E58304E}"/>
+    <hyperlink ref="D96" r:id="rId62" location="step2" xr:uid="{A32EE09D-2366-461A-84A4-E8740FDEE8D6}"/>
+    <hyperlink ref="D97" r:id="rId63" location="step2" xr:uid="{36E76534-8798-41E7-A896-6043B8C80205}"/>
+    <hyperlink ref="D98" r:id="rId64" location="step2" xr:uid="{0286222E-B56C-4BDF-B2B5-A87720064D01}"/>
+    <hyperlink ref="D99" r:id="rId65" location="step2" xr:uid="{E831DD03-BAB5-492C-8C25-EE5AF7818799}"/>
+    <hyperlink ref="D100" r:id="rId66" location="step2" xr:uid="{3795F041-75F9-4E81-97B7-780E012A05B4}"/>
+    <hyperlink ref="D101" r:id="rId67" location="step3" xr:uid="{4936793C-DC88-4E31-88BE-37F1788381B0}"/>
+    <hyperlink ref="D102" r:id="rId68" location="step4" xr:uid="{133D4645-D154-4436-ADB4-7B89ECF0FF80}"/>
+    <hyperlink ref="D103" r:id="rId69" location="step4" xr:uid="{4920D1E8-3934-49DC-BE2A-9C7C7BE39055}"/>
+    <hyperlink ref="D104" r:id="rId70" location="step5" xr:uid="{161CCDB6-F62E-43C9-8B0C-190815B85331}"/>
+    <hyperlink ref="D105" r:id="rId71" location="step5" xr:uid="{884C83B2-F4D5-4C0D-BCE0-86B22DB84A4E}"/>
+    <hyperlink ref="D106" r:id="rId72" location="step5" xr:uid="{CFE3A39F-2BBD-4500-A44E-9D4F64BAC056}"/>
+    <hyperlink ref="D107" r:id="rId73" location="step5" xr:uid="{E9354E88-80B1-437B-A58E-8E48838D5528}"/>
+    <hyperlink ref="D108" r:id="rId74" location="step6" xr:uid="{B4576EB3-6BAB-49D4-AA2C-B3D76443AF11}"/>
+    <hyperlink ref="D109" r:id="rId75" location="step7" xr:uid="{9B527549-D468-4033-A733-C10870B0AF67}"/>
+    <hyperlink ref="D120" r:id="rId76" xr:uid="{780277AE-3756-4E8C-8092-917EFB9D6D93}"/>
+    <hyperlink ref="D121:D123" r:id="rId77" display="https://docs.azure.cn/zh-cn/articles/azure-marketplace/faq-image/" xr:uid="{787C3A4E-1285-4956-88A2-0479EFD116E1}"/>
+    <hyperlink ref="D123" r:id="rId78" xr:uid="{A6813676-62FC-4922-BF1B-826AD1604349}"/>
+    <hyperlink ref="D172" r:id="rId79" xr:uid="{53F46ED1-8B88-4BDD-BDBC-EC88B63C389C}"/>
+    <hyperlink ref="D173" r:id="rId80" xr:uid="{29BC2025-79D9-46A6-AC9F-EE3242CA32FF}"/>
+    <hyperlink ref="D174" r:id="rId81" xr:uid="{2B5BA158-7567-4B12-ADCF-75DA4ADB70AA}"/>
+    <hyperlink ref="D175" r:id="rId82" xr:uid="{B9B4D49C-0BC6-4598-A265-48B58461F21B}"/>
+    <hyperlink ref="D176" r:id="rId83" xr:uid="{82E54D7B-5371-45ED-BD9F-018287071EA5}"/>
+    <hyperlink ref="D177" r:id="rId84" xr:uid="{1DB5207D-6103-4953-9419-633E0FA08D92}"/>
+    <hyperlink ref="D178" r:id="rId85" xr:uid="{B2EC763B-E269-4CC0-BDEC-1A349B513244}"/>
+    <hyperlink ref="D179" r:id="rId86" xr:uid="{F3255E57-7AB5-496B-99A5-5DFF888E0F57}"/>
+    <hyperlink ref="D180" r:id="rId87" xr:uid="{CD60E037-1A9F-45F9-8BF9-FD73EB48B0AE}"/>
+    <hyperlink ref="D181" r:id="rId88" xr:uid="{12368813-C62F-4885-90A3-438E2150218E}"/>
+    <hyperlink ref="D182" r:id="rId89" xr:uid="{A41DF1EE-F71D-4655-BADD-6CA4B9177CDB}"/>
+    <hyperlink ref="D183" r:id="rId90" xr:uid="{2E845211-2A9B-4F76-8F22-1F24EEC429D0}"/>
+    <hyperlink ref="D184" r:id="rId91" xr:uid="{EF3317C3-D05C-49E1-8BE2-AA16286A2DE0}"/>
+    <hyperlink ref="D185" r:id="rId92" location="section1" xr:uid="{C58B41B8-4539-4B99-AE37-FF8AE555869F}"/>
+    <hyperlink ref="D186:D190" r:id="rId93" location="section1" display="https://docs.azure.cn/zh-cn/articles/azure-operations-guide/commerce/billing/aog-billing-faq-data-transfer#section1" xr:uid="{06865B1D-CAD3-488A-AD0E-8EF4BCC7A59E}"/>
+    <hyperlink ref="D190" r:id="rId94" location="section6" xr:uid="{1FF8BB45-466B-4FD7-974C-D4DBF9FDF7BA}"/>
+    <hyperlink ref="D189" r:id="rId95" location="section5" xr:uid="{C9AC5812-B2BE-4E3D-B109-2879D90B963B}"/>
+    <hyperlink ref="D186" r:id="rId96" location="section2" xr:uid="{9C9BDD4C-246F-4C08-9890-207C7ABCCF87}"/>
+    <hyperlink ref="D187" r:id="rId97" location="section3" xr:uid="{B3D6D1D4-9BB8-43B2-A685-6BD38A62259F}"/>
+    <hyperlink ref="D191" r:id="rId98" location="section1" xr:uid="{F6E8FB66-77F1-4B8D-B1D4-78A3BAD99D02}"/>
+    <hyperlink ref="D192" r:id="rId99" location="section2" xr:uid="{7AE079CF-7F8E-4F06-9853-B35BF47E3DA1}"/>
+    <hyperlink ref="D193" r:id="rId100" location="section1" xr:uid="{66920084-6685-4D4F-BC6A-2BAF526548C9}"/>
+    <hyperlink ref="D194" r:id="rId101" location="section2" xr:uid="{FDBC663C-EC65-4C42-8347-777DB258CB63}"/>
+    <hyperlink ref="D195" r:id="rId102" location="section3" xr:uid="{F199CADC-2744-4C53-94A6-45B0BA3AEDFA}"/>
+    <hyperlink ref="D196" r:id="rId103" location="section4" xr:uid="{65AAC983-C72D-40C6-BDD0-4A874841F541}"/>
+    <hyperlink ref="D197" r:id="rId104" location="section5" xr:uid="{336465F2-6DE4-4EBD-A081-D00AB6108F01}"/>
+    <hyperlink ref="D198" r:id="rId105" xr:uid="{BCE7D960-F7F2-4657-9D5B-B3928845AD42}"/>
+    <hyperlink ref="D208" r:id="rId106" xr:uid="{E1EC51B6-632E-4523-A553-1487922CBCF3}"/>
+    <hyperlink ref="D209" r:id="rId107" xr:uid="{8E893273-19C4-482F-A512-B9159F31F06E}"/>
+    <hyperlink ref="D210" r:id="rId108" xr:uid="{FBC630FA-08AB-4294-84AB-2B5A603D784F}"/>
+    <hyperlink ref="D211" r:id="rId109" xr:uid="{DE9BAB2F-699D-472E-B54A-5A6B05D9DA21}"/>
+    <hyperlink ref="D212" r:id="rId110" xr:uid="{035472EB-8483-45AB-8B32-8265B5ADCDD3}"/>
+    <hyperlink ref="D213" r:id="rId111" xr:uid="{77CAE65D-97C9-4AB2-A9E4-0BB36D5BA016}"/>
+    <hyperlink ref="D214" r:id="rId112" xr:uid="{0A18B6A3-F19A-4A1E-8DFD-367C37401461}"/>
+    <hyperlink ref="D215" r:id="rId113" xr:uid="{F3BEFD6C-B76A-4CDC-BDAA-C64243450736}"/>
+    <hyperlink ref="D216" r:id="rId114" xr:uid="{58ABDE8C-4C04-4F41-B5DA-6F2681C5CB73}"/>
+    <hyperlink ref="D217" r:id="rId115" xr:uid="{11E07430-10AD-4A09-9D15-ABDC7CB3CFDE}"/>
+    <hyperlink ref="D218" r:id="rId116" xr:uid="{B535F679-77D8-4A2F-B98C-00C70D231B95}"/>
+    <hyperlink ref="D219" r:id="rId117" xr:uid="{925FE925-4E81-454B-BDE0-24563A60F3F2}"/>
+    <hyperlink ref="D220" r:id="rId118" xr:uid="{8452E15B-6983-4AF5-9B3A-47801DB41CAD}"/>
+    <hyperlink ref="D221" r:id="rId119" xr:uid="{2E0A3903-2AF3-4EAF-9DDA-FBD225CFBC69}"/>
+    <hyperlink ref="D222" r:id="rId120" xr:uid="{F6050667-945F-4DAC-9325-9CA58E9C1F16}"/>
+    <hyperlink ref="D223" r:id="rId121" xr:uid="{902F4B1B-F307-4ACA-B1E4-A603628E5B4E}"/>
+    <hyperlink ref="D224" r:id="rId122" xr:uid="{6DF8B6B4-5EAE-4B99-B9BC-1DAD4B691353}"/>
+    <hyperlink ref="D225" r:id="rId123" location="section1" xr:uid="{A3B35E59-61D2-40D4-A09E-548CD6DEA40A}"/>
+    <hyperlink ref="D226" r:id="rId124" location="section2" xr:uid="{B4D2D62A-64F1-4CDF-8285-3225D0003F6E}"/>
+    <hyperlink ref="D227" r:id="rId125" location="section3" xr:uid="{0DE84184-2DC1-458D-A6D7-D8CE63B1A1DD}"/>
+    <hyperlink ref="D228" r:id="rId126" location="section4" xr:uid="{9F03DD3F-BF23-4143-8CE8-59475777B61E}"/>
+    <hyperlink ref="D229" r:id="rId127" location="section5" xr:uid="{CAF0CC06-1117-44C5-B4B3-8F4AD7BB3C5A}"/>
+    <hyperlink ref="D230" r:id="rId128" xr:uid="{20202818-2B48-44FA-9A96-72BC778EA319}"/>
+    <hyperlink ref="D232" r:id="rId129" location="%E9%97%AE%E9%A2%98%E4%B8%89" xr:uid="{DFDC242B-CAAF-4EC7-9008-DF9B43001FBA}"/>
+    <hyperlink ref="D231" r:id="rId130" location="%E9%97%AE%E9%A2%98%E4%BA%8C" xr:uid="{41FCE47C-F3D3-4648-B663-F2AA70056961}"/>
+    <hyperlink ref="D233" r:id="rId131" xr:uid="{B270B302-EBCE-43D5-9CFA-67FC7D7E1941}"/>
+    <hyperlink ref="D234" r:id="rId132" xr:uid="{95720673-B382-41FC-A63E-524C424E6719}"/>
+    <hyperlink ref="D235" r:id="rId133" xr:uid="{D54D874B-8164-4E1D-99F4-6544EE5A9AEF}"/>
+    <hyperlink ref="D236" r:id="rId134" xr:uid="{C03AB29A-2553-4E2E-9D64-A356793290CF}"/>
+    <hyperlink ref="D237" r:id="rId135" xr:uid="{593F9394-3834-4C1E-80E1-0033723A13AB}"/>
+    <hyperlink ref="D238" r:id="rId136" xr:uid="{54BDFD02-31DE-4E6E-85E1-D9B443C29687}"/>
+    <hyperlink ref="D239" r:id="rId137" xr:uid="{109B647A-0793-4675-BE5D-07548D63F79A}"/>
+    <hyperlink ref="D240" r:id="rId138" xr:uid="{BAA2E8DE-E4DA-427A-BAB3-06B30C2BF2B8}"/>
+    <hyperlink ref="D241" r:id="rId139" xr:uid="{E475C431-AD30-4C76-885A-E049B4668890}"/>
+    <hyperlink ref="D242" r:id="rId140" xr:uid="{D6240930-C724-47C9-B811-825BFF6A53F4}"/>
+    <hyperlink ref="D243" r:id="rId141" xr:uid="{A3141AA6-6946-49A2-800F-77C814DD7C69}"/>
+    <hyperlink ref="D244" r:id="rId142" xr:uid="{03BCC96F-15A1-4BCF-B1FD-8C9B5ADF6CCE}"/>
+    <hyperlink ref="D245" r:id="rId143" xr:uid="{B51881ED-8C26-42A2-B444-55A72BC40A9F}"/>
+    <hyperlink ref="D246" r:id="rId144" xr:uid="{3833C427-0605-4823-889E-327C8DE946FE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId145"/>
+</worksheet>
 </file>